--- a/Lyst-PALE_Set1_P21_V1_Volume_Stats.xlsx
+++ b/Lyst-PALE_Set1_P21_V1_Volume_Stats.xlsx
@@ -1,24 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gabrielle\Documents\GitHub\JD_PALE_data_analysis_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19341E68-FD56-4830-8DDD-760AAD2C26F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA13E2E-0FAD-46F2-8CEA-DD2627EC6C93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18120" yWindow="0" windowWidth="19070" windowHeight="20780" xr2:uid="{FF6D5463-ACE5-4023-A7B8-F56D7A212BE1}"/>
+    <workbookView xWindow="4180" yWindow="460" windowWidth="20600" windowHeight="20540" xr2:uid="{FF6D5463-ACE5-4023-A7B8-F56D7A212BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$91</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$A$2:$A$90</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$C$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$91</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$C$2:$C$90</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="101">
   <si>
     <t>Image ID</t>
   </si>
@@ -286,9 +286,6 @@
     <t>A7S3C4</t>
   </si>
   <si>
-    <t>A7S4C1</t>
-  </si>
-  <si>
     <t>A7S4C2</t>
   </si>
   <si>
@@ -338,9 +335,6 @@
   </si>
   <si>
     <t>cut off</t>
-  </si>
-  <si>
-    <t>too much background</t>
   </si>
   <si>
     <t>A8S3C1_1</t>
@@ -1104,9 +1098,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1144,7 +1138,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1250,7 +1244,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1392,7 +1386,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1400,10 +1394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B478B4E-7D57-4E94-A766-7400570D99CC}">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1413,7 +1407,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1424,7 +1418,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1435,7 +1429,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -1446,7 +1440,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
@@ -1457,7 +1451,7 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -1469,7 +1463,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1481,7 +1475,7 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1492,7 +1486,7 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
         <v>7</v>
@@ -1503,7 +1497,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
@@ -1514,7 +1508,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -1525,7 +1519,7 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>10</v>
@@ -1536,7 +1530,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>11</v>
@@ -1547,7 +1541,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1557,12 +1551,12 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>13</v>
@@ -1573,7 +1567,7 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B15" t="s">
         <v>14</v>
@@ -1584,7 +1578,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
@@ -1595,7 +1589,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
@@ -1606,7 +1600,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1618,7 +1612,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1629,7 +1623,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>19</v>
@@ -1640,7 +1634,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1651,7 +1645,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>22</v>
@@ -1662,7 +1656,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
@@ -1673,7 +1667,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B24" t="s">
         <v>24</v>
@@ -1684,7 +1678,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>25</v>
@@ -1695,7 +1689,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -1705,12 +1699,12 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -1721,7 +1715,7 @@
     </row>
     <row r="28" spans="1:5" ht="14" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -1732,7 +1726,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
@@ -1743,7 +1737,7 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
@@ -1754,7 +1748,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
@@ -1765,7 +1759,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
@@ -1776,7 +1770,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
@@ -1787,7 +1781,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
@@ -1797,12 +1791,12 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
@@ -1814,7 +1808,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>52</v>
@@ -1825,7 +1819,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" t="s">
         <v>53</v>
@@ -1839,7 +1833,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" t="s">
         <v>54</v>
@@ -1850,7 +1844,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
         <v>55</v>
@@ -1861,7 +1855,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -1872,7 +1866,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B41" t="s">
         <v>57</v>
@@ -1883,7 +1877,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B42" t="s">
         <v>58</v>
@@ -1894,7 +1888,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B43" t="s">
         <v>61</v>
@@ -1908,7 +1902,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
         <v>62</v>
@@ -1919,7 +1913,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B45" t="s">
         <v>63</v>
@@ -1930,7 +1924,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
         <v>64</v>
@@ -1947,7 +1941,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
         <v>65</v>
@@ -1961,7 +1955,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
         <v>66</v>
@@ -1972,7 +1966,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B49" t="s">
         <v>67</v>
@@ -1986,7 +1980,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
         <v>68</v>
@@ -1997,7 +1991,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
         <v>69</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
         <v>70</v>
@@ -2019,7 +2013,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B53" t="s">
         <v>71</v>
@@ -2037,7 +2031,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B54" t="s">
         <v>37</v>
@@ -2048,7 +2042,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
@@ -2059,7 +2053,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
         <v>39</v>
@@ -2070,7 +2064,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
         <v>40</v>
@@ -2081,7 +2075,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
         <v>41</v>
@@ -2092,7 +2086,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
@@ -2103,7 +2097,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
         <v>43</v>
@@ -2114,7 +2108,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
@@ -2126,7 +2120,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B62" t="s">
         <v>45</v>
@@ -2140,7 +2134,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B63" t="s">
         <v>47</v>
@@ -2151,7 +2145,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B64" t="s">
         <v>48</v>
@@ -2162,7 +2156,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -2174,7 +2168,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B66" t="s">
         <v>72</v>
@@ -2188,7 +2182,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B67" t="s">
         <v>50</v>
@@ -2199,7 +2193,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B68" t="s">
         <v>73</v>
@@ -2217,7 +2211,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
@@ -2228,7 +2222,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B70" t="s">
         <v>77</v>
@@ -2239,7 +2233,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B71" t="s">
         <v>78</v>
@@ -2250,7 +2244,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
         <v>79</v>
@@ -2259,12 +2253,12 @@
         <v>63400</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B73" t="s">
         <v>80</v>
@@ -2275,216 +2269,204 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s">
         <v>81</v>
       </c>
-      <c r="C74" s="1"/>
-      <c r="D74" t="s">
-        <v>99</v>
+      <c r="C74" s="1">
+        <v>64100</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B75" t="s">
-        <v>82</v>
+        <v>51</v>
       </c>
       <c r="C75" s="1">
-        <v>64100</v>
+        <v>102000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>82</v>
       </c>
       <c r="C76" s="1">
-        <v>102000</v>
-      </c>
-      <c r="D76" t="s">
-        <v>74</v>
+        <v>65600</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B77" t="s">
         <v>83</v>
       </c>
       <c r="C77" s="1">
-        <v>65600</v>
-      </c>
+        <v>73600</v>
+      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B78" t="s">
         <v>84</v>
       </c>
       <c r="C78" s="1">
-        <v>73600</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>90500</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B79" t="s">
         <v>85</v>
       </c>
       <c r="C79" s="1">
-        <v>90500</v>
-      </c>
+        <v>72100</v>
+      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
         <v>86</v>
       </c>
       <c r="C80" s="1">
-        <v>72100</v>
-      </c>
-      <c r="D80" s="2"/>
+        <v>76800</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B81" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="C81" s="1">
-        <v>76800</v>
+        <v>59100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B82" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
       <c r="C82" s="1">
-        <v>59100</v>
-      </c>
-      <c r="D82" t="s">
-        <v>94</v>
+        <v>93800</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B83" t="s">
-        <v>29</v>
+        <v>87</v>
       </c>
       <c r="C83" s="1">
-        <v>93800</v>
+        <v>62900</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B84" t="s">
         <v>88</v>
       </c>
       <c r="C84" s="1">
-        <v>62900</v>
+        <v>91200</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" t="s">
         <v>89</v>
       </c>
       <c r="C85" s="1">
-        <v>91200</v>
+        <v>65800</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>90</v>
       </c>
       <c r="C86" s="1">
-        <v>65800</v>
+        <v>68600</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B87" t="s">
         <v>91</v>
       </c>
       <c r="C87" s="1">
-        <v>68600</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s">
-        <v>102</v>
+        <v>49500</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
         <v>92</v>
       </c>
       <c r="C88" s="1">
-        <v>49500</v>
+        <v>75300</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B89" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="C89" s="1">
-        <v>75300</v>
+        <v>52400</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C90" s="1">
-        <v>52400</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>97</v>
-      </c>
-      <c r="B91" t="s">
-        <v>60</v>
-      </c>
-      <c r="C91" s="1">
         <v>69600</v>
       </c>
-      <c r="G91" s="1">
-        <f>AVERAGE(C54:C91)</f>
+      <c r="G90" s="1">
+        <f>AVERAGE(C54:C90)</f>
         <v>68602.702702702707</v>
       </c>
     </row>
